--- a/data/pca/factorExposure/factorExposure_2018-03-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01220126433312201</v>
+        <v>0.01467664442630412</v>
       </c>
       <c r="C2">
-        <v>-0.02922114772546712</v>
+        <v>-0.01635236708037054</v>
       </c>
       <c r="D2">
-        <v>-0.02447080718073587</v>
+        <v>-0.03415519197953062</v>
       </c>
       <c r="E2">
-        <v>0.006981611935097349</v>
+        <v>-0.01929281914668316</v>
       </c>
       <c r="F2">
-        <v>0.09282701884802194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.01082289524357045</v>
+      </c>
+      <c r="G2">
+        <v>0.02883550625884241</v>
+      </c>
+      <c r="H2">
+        <v>-0.04427434897740821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08654214948975748</v>
+        <v>0.06341446683246295</v>
       </c>
       <c r="C3">
-        <v>-0.04824928437736491</v>
+        <v>-0.06791532197765279</v>
       </c>
       <c r="D3">
-        <v>-0.005917970237223928</v>
+        <v>-0.03673203929860555</v>
       </c>
       <c r="E3">
-        <v>0.02970133406792484</v>
+        <v>-0.005336969780117544</v>
       </c>
       <c r="F3">
-        <v>0.3381595648197231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.06931454918126183</v>
+      </c>
+      <c r="G3">
+        <v>0.1386508904427962</v>
+      </c>
+      <c r="H3">
+        <v>-0.1046952746802655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04471267967982046</v>
+        <v>0.03687207904073939</v>
       </c>
       <c r="C4">
-        <v>-0.01749545969208694</v>
+        <v>-0.05142282165146615</v>
       </c>
       <c r="D4">
-        <v>-0.03444549457961805</v>
+        <v>-0.04329300921743778</v>
       </c>
       <c r="E4">
-        <v>-0.03652477850203346</v>
+        <v>0.0157824426785555</v>
       </c>
       <c r="F4">
-        <v>0.05999699110350801</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.02423229647993013</v>
+      </c>
+      <c r="G4">
+        <v>0.05123393976034574</v>
+      </c>
+      <c r="H4">
+        <v>-0.05540562810246728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03299779371919934</v>
+        <v>0.02294452138240388</v>
       </c>
       <c r="C6">
-        <v>-0.01552895996467871</v>
+        <v>-0.05027773803068522</v>
       </c>
       <c r="D6">
-        <v>-0.04035081864593016</v>
+        <v>-0.03722054579922839</v>
       </c>
       <c r="E6">
-        <v>-0.02402820697724811</v>
+        <v>0.004834880547901708</v>
       </c>
       <c r="F6">
-        <v>0.01278985809616295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02410287424280856</v>
+      </c>
+      <c r="G6">
+        <v>0.02139516883174587</v>
+      </c>
+      <c r="H6">
+        <v>-0.05882144770822179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0389401204733212</v>
+        <v>0.01009453397159758</v>
       </c>
       <c r="C7">
-        <v>0.02749769955723411</v>
+        <v>-0.02749320096323028</v>
       </c>
       <c r="D7">
-        <v>-0.02945419842875978</v>
+        <v>-0.02442426752037769</v>
       </c>
       <c r="E7">
-        <v>-0.01509398710313452</v>
+        <v>0.04361936191374071</v>
       </c>
       <c r="F7">
-        <v>0.03541790382684752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.007222674613337424</v>
+      </c>
+      <c r="G7">
+        <v>0.01822968163330745</v>
+      </c>
+      <c r="H7">
+        <v>-0.03549347491314286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01556870177999119</v>
+        <v>-0.000210497190122337</v>
       </c>
       <c r="C8">
-        <v>-0.0009425339245855271</v>
+        <v>-0.009856030324159803</v>
       </c>
       <c r="D8">
-        <v>-0.04273453088723828</v>
+        <v>-0.006328497660219879</v>
       </c>
       <c r="E8">
-        <v>-0.02691901107285339</v>
+        <v>0.01020308922309604</v>
       </c>
       <c r="F8">
-        <v>0.06269440158665113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.00245570444167351</v>
+      </c>
+      <c r="G8">
+        <v>0.04131966986172939</v>
+      </c>
+      <c r="H8">
+        <v>-0.03207372307548016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03349229254319846</v>
+        <v>0.02435046011476555</v>
       </c>
       <c r="C9">
-        <v>-0.01195766056438413</v>
+        <v>-0.03903554058420838</v>
       </c>
       <c r="D9">
-        <v>-0.03335471394511791</v>
+        <v>-0.03106671483043821</v>
       </c>
       <c r="E9">
-        <v>-0.01429602968296421</v>
+        <v>0.006461802217005994</v>
       </c>
       <c r="F9">
-        <v>0.07950702842929683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.002699038195171305</v>
+      </c>
+      <c r="G9">
+        <v>0.0454388078755014</v>
+      </c>
+      <c r="H9">
+        <v>-0.05272782914777112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04317696989277535</v>
+        <v>0.1316386862342746</v>
       </c>
       <c r="C10">
-        <v>-0.005861915739537136</v>
+        <v>0.1198486502089641</v>
       </c>
       <c r="D10">
-        <v>0.1463693586556206</v>
+        <v>0.08574042194221772</v>
       </c>
       <c r="E10">
-        <v>0.03964760589018048</v>
+        <v>0.0004896792029962966</v>
       </c>
       <c r="F10">
-        <v>0.05961606215434828</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04400434376750762</v>
+      </c>
+      <c r="G10">
+        <v>0.01879891468479923</v>
+      </c>
+      <c r="H10">
+        <v>0.01112100574552273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02980517218681645</v>
+        <v>0.01682976793342914</v>
       </c>
       <c r="C11">
-        <v>-0.02363532898619155</v>
+        <v>-0.04631323908272578</v>
       </c>
       <c r="D11">
-        <v>-0.03673863550393115</v>
+        <v>-0.02061978373306619</v>
       </c>
       <c r="E11">
-        <v>-0.02092135395274799</v>
+        <v>-0.001707448906431454</v>
       </c>
       <c r="F11">
-        <v>0.02594993517721818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.003942019253794377</v>
+      </c>
+      <c r="G11">
+        <v>0.02197194344026398</v>
+      </c>
+      <c r="H11">
+        <v>-0.04981930796483706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04066883100391484</v>
+        <v>0.02060160039788441</v>
       </c>
       <c r="C12">
-        <v>-0.02306242965334886</v>
+        <v>-0.04289130463167504</v>
       </c>
       <c r="D12">
-        <v>-0.03068562385078331</v>
+        <v>-0.02304253094930628</v>
       </c>
       <c r="E12">
-        <v>-0.03006007010475783</v>
+        <v>0.01131304057729844</v>
       </c>
       <c r="F12">
-        <v>0.001509994514041636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01039780527967992</v>
+      </c>
+      <c r="G12">
+        <v>0.008569488480419924</v>
+      </c>
+      <c r="H12">
+        <v>-0.01925812648435395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01050515481164073</v>
+        <v>0.01847501445191835</v>
       </c>
       <c r="C13">
-        <v>-0.02190205263894733</v>
+        <v>-0.01329062156866991</v>
       </c>
       <c r="D13">
-        <v>-0.009344257190797607</v>
+        <v>-0.02811130115687614</v>
       </c>
       <c r="E13">
-        <v>-0.00915502617471908</v>
+        <v>-0.01338876861458898</v>
       </c>
       <c r="F13">
-        <v>0.07452918335482203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.003088835732533957</v>
+      </c>
+      <c r="G13">
+        <v>0.05549437085506144</v>
+      </c>
+      <c r="H13">
+        <v>-0.06857979360242152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02373843355867306</v>
+        <v>0.00954188783489068</v>
       </c>
       <c r="C14">
-        <v>0.001445645361187234</v>
+        <v>-0.01651877592172355</v>
       </c>
       <c r="D14">
-        <v>-0.01797656366287348</v>
+        <v>-0.01420024160705307</v>
       </c>
       <c r="E14">
-        <v>-0.01841433698351402</v>
+        <v>0.01433567384578721</v>
       </c>
       <c r="F14">
-        <v>0.04762874950317775</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.005744715232525191</v>
+      </c>
+      <c r="G14">
+        <v>0.03795479642090429</v>
+      </c>
+      <c r="H14">
+        <v>-0.009232152068316794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03098841550921035</v>
+        <v>0.01831999839161158</v>
       </c>
       <c r="C16">
-        <v>-0.02337047706310717</v>
+        <v>-0.04009625318142633</v>
       </c>
       <c r="D16">
-        <v>-0.04068946821099243</v>
+        <v>-0.01700308457393781</v>
       </c>
       <c r="E16">
-        <v>-0.0223522753072439</v>
+        <v>0.002616201377965879</v>
       </c>
       <c r="F16">
-        <v>0.02802681151210558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.00588346099401979</v>
+      </c>
+      <c r="G16">
+        <v>0.02156022365030332</v>
+      </c>
+      <c r="H16">
+        <v>-0.03580402553828761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03577608160969808</v>
+        <v>0.02019311462944017</v>
       </c>
       <c r="C19">
-        <v>-0.01948562856432794</v>
+        <v>-0.03534467214519924</v>
       </c>
       <c r="D19">
-        <v>-0.04474040915084819</v>
+        <v>-0.02800043451647695</v>
       </c>
       <c r="E19">
-        <v>-0.03626080294692757</v>
+        <v>0.01087280124021471</v>
       </c>
       <c r="F19">
-        <v>0.07671646817504911</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.0001562329342206831</v>
+      </c>
+      <c r="G19">
+        <v>0.05822651766980915</v>
+      </c>
+      <c r="H19">
+        <v>-0.05259221021007928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003512342408117907</v>
+        <v>0.005211876042300168</v>
       </c>
       <c r="C20">
-        <v>0.008644477708078881</v>
+        <v>-0.01489991037710662</v>
       </c>
       <c r="D20">
-        <v>-0.004587998932891875</v>
+        <v>-0.01808883462266326</v>
       </c>
       <c r="E20">
-        <v>-0.01290860559416556</v>
+        <v>0.005020704101525194</v>
       </c>
       <c r="F20">
-        <v>0.05453775525086564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.009082893318103335</v>
+      </c>
+      <c r="G20">
+        <v>0.04837505895830203</v>
+      </c>
+      <c r="H20">
+        <v>-0.02596343825373499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01982205782572627</v>
+        <v>0.01089708850317497</v>
       </c>
       <c r="C21">
-        <v>0.01493973119567508</v>
+        <v>-0.01302568993538051</v>
       </c>
       <c r="D21">
-        <v>-0.0331733002339857</v>
+        <v>-0.01958736930619621</v>
       </c>
       <c r="E21">
-        <v>-0.005823568198521351</v>
+        <v>0.01742250834421545</v>
       </c>
       <c r="F21">
-        <v>0.02616367882292244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01482812031373407</v>
+      </c>
+      <c r="G21">
+        <v>0.03853482694412367</v>
+      </c>
+      <c r="H21">
+        <v>-0.05024442299239482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02832495543148205</v>
+        <v>0.01350882324255065</v>
       </c>
       <c r="C24">
-        <v>-0.02124952515058201</v>
+        <v>-0.03804312309456453</v>
       </c>
       <c r="D24">
-        <v>-0.02122798412874465</v>
+        <v>-0.02191438920443106</v>
       </c>
       <c r="E24">
-        <v>-0.02185972076212045</v>
+        <v>0.001003393455839665</v>
       </c>
       <c r="F24">
-        <v>0.03129604744058418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.005344667095197015</v>
+      </c>
+      <c r="G24">
+        <v>0.0156953253339651</v>
+      </c>
+      <c r="H24">
+        <v>-0.04321470224005532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03144870557050349</v>
+        <v>0.02726305711010318</v>
       </c>
       <c r="C25">
-        <v>-0.01936234426107824</v>
+        <v>-0.04062890648022328</v>
       </c>
       <c r="D25">
-        <v>-0.03153412634441115</v>
+        <v>-0.02645490464939299</v>
       </c>
       <c r="E25">
-        <v>-0.01727581110958459</v>
+        <v>0.006291388018887102</v>
       </c>
       <c r="F25">
-        <v>0.03250408670983065</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01289186326926279</v>
+      </c>
+      <c r="G25">
+        <v>0.02039825350258028</v>
+      </c>
+      <c r="H25">
+        <v>-0.0438064928103291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0140735281429302</v>
+        <v>0.009578901178971465</v>
       </c>
       <c r="C26">
-        <v>-0.00848264012698895</v>
+        <v>0.002616459185711608</v>
       </c>
       <c r="D26">
-        <v>-0.01995805448513245</v>
+        <v>-0.02268078881882873</v>
       </c>
       <c r="E26">
-        <v>0.002908585951481257</v>
+        <v>0.001838259190188222</v>
       </c>
       <c r="F26">
-        <v>0.05444741033877652</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008424861422683127</v>
+      </c>
+      <c r="G26">
+        <v>0.02418961870687161</v>
+      </c>
+      <c r="H26">
+        <v>-0.01801419432383268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.03473038312663311</v>
+        <v>0.01298221574522345</v>
       </c>
       <c r="C27">
-        <v>-0.01708895208466676</v>
+        <v>-0.01154939162491316</v>
       </c>
       <c r="D27">
-        <v>0.0013937539155083</v>
+        <v>-0.002683861361669268</v>
       </c>
       <c r="E27">
-        <v>-0.03250852332324354</v>
+        <v>0.006876641468564844</v>
       </c>
       <c r="F27">
-        <v>0.01113858631960458</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.003461736885308511</v>
+      </c>
+      <c r="G27">
+        <v>0.008864698437598441</v>
+      </c>
+      <c r="H27">
+        <v>0.005478885858882582</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07453422944143849</v>
+        <v>0.1816212344008926</v>
       </c>
       <c r="C28">
-        <v>-0.01119860611929116</v>
+        <v>0.1643230406744549</v>
       </c>
       <c r="D28">
-        <v>0.2112496744152126</v>
+        <v>0.1018225896026721</v>
       </c>
       <c r="E28">
-        <v>0.07575493199769374</v>
+        <v>0.01305737075417685</v>
       </c>
       <c r="F28">
-        <v>0.05625627612276382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04134836854717713</v>
+      </c>
+      <c r="G28">
+        <v>0.007253596023936746</v>
+      </c>
+      <c r="H28">
+        <v>0.01370573969774683</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02511092672356403</v>
+        <v>0.01508727699145991</v>
       </c>
       <c r="C29">
-        <v>0.0003261030228024865</v>
+        <v>-0.01561634103043187</v>
       </c>
       <c r="D29">
-        <v>-0.02080260042000384</v>
+        <v>-0.01237398263176036</v>
       </c>
       <c r="E29">
-        <v>-0.02054091202570522</v>
+        <v>0.01362691839780149</v>
       </c>
       <c r="F29">
-        <v>0.04429293338841921</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.005935232560979732</v>
+      </c>
+      <c r="G29">
+        <v>0.03695594582918942</v>
+      </c>
+      <c r="H29">
+        <v>-0.004786192906201869</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04558486567702171</v>
+        <v>0.03231807615563018</v>
       </c>
       <c r="C30">
-        <v>-0.07417770121622776</v>
+        <v>-0.07269748130577847</v>
       </c>
       <c r="D30">
-        <v>-0.05525701043083234</v>
+        <v>-0.05840403702212782</v>
       </c>
       <c r="E30">
-        <v>-0.03159212053180951</v>
+        <v>-0.03226022047938467</v>
       </c>
       <c r="F30">
-        <v>0.08700838007869452</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.0126206233309694</v>
+      </c>
+      <c r="G30">
+        <v>0.06342380809155719</v>
+      </c>
+      <c r="H30">
+        <v>-0.07375831410236787</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05028471075707937</v>
+        <v>0.04228325864353161</v>
       </c>
       <c r="C31">
-        <v>-0.03544096284405478</v>
+        <v>-0.02793422236521632</v>
       </c>
       <c r="D31">
-        <v>-0.01701625937702762</v>
+        <v>-0.01140045461792088</v>
       </c>
       <c r="E31">
-        <v>-0.02505696114170608</v>
+        <v>0.0001149325651447673</v>
       </c>
       <c r="F31">
-        <v>0.03023105419319321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.005222969053703926</v>
+      </c>
+      <c r="G31">
+        <v>0.01796088482669756</v>
+      </c>
+      <c r="H31">
+        <v>-0.004044842312146722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02424417401517769</v>
+        <v>0.004622792365024729</v>
       </c>
       <c r="C32">
-        <v>0.01325076643762498</v>
+        <v>-0.01562494827279712</v>
       </c>
       <c r="D32">
-        <v>-0.05416200430900469</v>
+        <v>0.002544197847527825</v>
       </c>
       <c r="E32">
-        <v>-0.04061609817936589</v>
+        <v>0.03092724379226298</v>
       </c>
       <c r="F32">
-        <v>0.04392869537930519</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.0162534505288836</v>
+      </c>
+      <c r="G32">
+        <v>0.05283788058553675</v>
+      </c>
+      <c r="H32">
+        <v>-0.04874883649820635</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0305462982601449</v>
+        <v>0.02031521258119164</v>
       </c>
       <c r="C33">
-        <v>-0.043681497150724</v>
+        <v>-0.03850367882747428</v>
       </c>
       <c r="D33">
-        <v>-0.05018388130179781</v>
+        <v>-0.02967794666923987</v>
       </c>
       <c r="E33">
-        <v>-0.001599749016350981</v>
+        <v>-0.01906721595579979</v>
       </c>
       <c r="F33">
-        <v>0.06106453856163908</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01964021396161585</v>
+      </c>
+      <c r="G33">
+        <v>0.03537361525554392</v>
+      </c>
+      <c r="H33">
+        <v>-0.04916561676990743</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03601147340900872</v>
+        <v>0.02536607502691411</v>
       </c>
       <c r="C34">
-        <v>-0.01674137462635256</v>
+        <v>-0.05004290563977591</v>
       </c>
       <c r="D34">
-        <v>-0.04281337397704516</v>
+        <v>-0.01306751599567409</v>
       </c>
       <c r="E34">
-        <v>-0.03251494850126212</v>
+        <v>0.01377670648074902</v>
       </c>
       <c r="F34">
-        <v>0.0262452807363857</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.0146644748532036</v>
+      </c>
+      <c r="G34">
+        <v>0.01420364361342847</v>
+      </c>
+      <c r="H34">
+        <v>-0.03547765168660567</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01753633167628331</v>
+        <v>0.01505342412938522</v>
       </c>
       <c r="C36">
-        <v>0.0004300420476770151</v>
+        <v>-0.001729621248804382</v>
       </c>
       <c r="D36">
-        <v>-0.01160141367659357</v>
+        <v>-0.01014451896547615</v>
       </c>
       <c r="E36">
-        <v>-0.01273008243476283</v>
+        <v>0.008492631498679102</v>
       </c>
       <c r="F36">
-        <v>0.02870867530897127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.004983931667123596</v>
+      </c>
+      <c r="G36">
+        <v>0.01648078380989948</v>
+      </c>
+      <c r="H36">
+        <v>-0.01533638440617893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.007808391558124297</v>
+        <v>0.02329312845401185</v>
       </c>
       <c r="C38">
-        <v>-0.004909203723930944</v>
+        <v>-0.02003176251374686</v>
       </c>
       <c r="D38">
-        <v>-0.0012421564905623</v>
+        <v>0.002678552852924196</v>
       </c>
       <c r="E38">
-        <v>0.01977922664273163</v>
+        <v>0.0008927359312429881</v>
       </c>
       <c r="F38">
-        <v>0.04497003615118299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.002522432567912943</v>
+      </c>
+      <c r="G38">
+        <v>0.02321046906866324</v>
+      </c>
+      <c r="H38">
+        <v>-0.03184327679320739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02879017230613821</v>
+        <v>0.007878572460532994</v>
       </c>
       <c r="C39">
-        <v>-0.02293289081428799</v>
+        <v>-0.07587765054463021</v>
       </c>
       <c r="D39">
-        <v>-0.05837893382747452</v>
+        <v>-0.04584416754415239</v>
       </c>
       <c r="E39">
-        <v>-0.02324678802439136</v>
+        <v>-0.006505819416630533</v>
       </c>
       <c r="F39">
-        <v>0.0470906166142516</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.004448697842968656</v>
+      </c>
+      <c r="G39">
+        <v>0.03329632468783039</v>
+      </c>
+      <c r="H39">
+        <v>-0.07854516899167197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01715126551481734</v>
+        <v>0.0238737558423209</v>
       </c>
       <c r="C40">
-        <v>-0.05113976967748646</v>
+        <v>-0.02548406445910373</v>
       </c>
       <c r="D40">
-        <v>-0.02168278660475667</v>
+        <v>-0.01996622065813868</v>
       </c>
       <c r="E40">
-        <v>-0.03104775485255801</v>
+        <v>-0.02384402234060978</v>
       </c>
       <c r="F40">
-        <v>0.03915096863564822</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02190491725079266</v>
+      </c>
+      <c r="G40">
+        <v>0.02316367841861807</v>
+      </c>
+      <c r="H40">
+        <v>-0.05694627350632993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006147214011027073</v>
+        <v>0.0123869361848036</v>
       </c>
       <c r="C41">
-        <v>0.002010561223537454</v>
+        <v>0.009117845946982896</v>
       </c>
       <c r="D41">
-        <v>-0.006329099556137318</v>
+        <v>0.002611081419977531</v>
       </c>
       <c r="E41">
-        <v>0.01150734006941097</v>
+        <v>0.004979278726407717</v>
       </c>
       <c r="F41">
-        <v>0.004146826482816633</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.006501780258436801</v>
+      </c>
+      <c r="G41">
+        <v>-0.004012731032135649</v>
+      </c>
+      <c r="H41">
+        <v>0.004464294162429656</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2207465827948007</v>
+        <v>0.1012836561118994</v>
       </c>
       <c r="C42">
-        <v>-0.2254757718198161</v>
+        <v>-0.1357954091952547</v>
       </c>
       <c r="D42">
-        <v>-0.2263428410805919</v>
+        <v>-0.1979272081549539</v>
       </c>
       <c r="E42">
-        <v>0.8588412905781442</v>
+        <v>-0.2044002298500812</v>
       </c>
       <c r="F42">
-        <v>-0.2578884626645254</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.7290742081687036</v>
+      </c>
+      <c r="G42">
+        <v>-0.5807391557062302</v>
+      </c>
+      <c r="H42">
+        <v>-0.05603515199435071</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005735375945031793</v>
+        <v>0.0129068008264678</v>
       </c>
       <c r="C43">
-        <v>-0.003956057108807253</v>
+        <v>0.009050990519873486</v>
       </c>
       <c r="D43">
-        <v>-0.01114777263254344</v>
+        <v>0.001628640194008362</v>
       </c>
       <c r="E43">
-        <v>0.001513402108950391</v>
+        <v>0.0004068667315604463</v>
       </c>
       <c r="F43">
-        <v>0.0241215723472212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.007379824411136213</v>
+      </c>
+      <c r="G43">
+        <v>-0.0005328748176641596</v>
+      </c>
+      <c r="H43">
+        <v>-0.004049534154940531</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02470984144734243</v>
+        <v>0.01087167900593379</v>
       </c>
       <c r="C44">
-        <v>0.003580625454717617</v>
+        <v>-0.03447166686594497</v>
       </c>
       <c r="D44">
-        <v>-0.02920832034670812</v>
+        <v>-0.0200423743867687</v>
       </c>
       <c r="E44">
-        <v>0.002096346681947337</v>
+        <v>0.01475596765964451</v>
       </c>
       <c r="F44">
-        <v>0.09146015146880825</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02179404568053721</v>
+      </c>
+      <c r="G44">
+        <v>0.03378938463924544</v>
+      </c>
+      <c r="H44">
+        <v>-0.0591567633375256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01932234958962999</v>
+        <v>0.006210618130737424</v>
       </c>
       <c r="C46">
-        <v>-0.01041845953360298</v>
+        <v>-0.008716156192964272</v>
       </c>
       <c r="D46">
-        <v>-0.05501844052333838</v>
+        <v>-0.01500329019936567</v>
       </c>
       <c r="E46">
-        <v>-0.02331259197253836</v>
+        <v>0.001489242514067047</v>
       </c>
       <c r="F46">
-        <v>0.05902144578435093</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01080002404453103</v>
+      </c>
+      <c r="G46">
+        <v>0.03577991641579245</v>
+      </c>
+      <c r="H46">
+        <v>-0.006728498645764737</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07749326617397978</v>
+        <v>0.05898475482519239</v>
       </c>
       <c r="C47">
-        <v>-0.05074836334969451</v>
+        <v>-0.06256376595549386</v>
       </c>
       <c r="D47">
-        <v>-0.009521267741862384</v>
+        <v>-0.01726525908100605</v>
       </c>
       <c r="E47">
-        <v>-0.03610914692718197</v>
+        <v>0.006844595175099065</v>
       </c>
       <c r="F47">
-        <v>0.003427872502353788</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.007998196596033019</v>
+      </c>
+      <c r="G47">
+        <v>0.002173061010303859</v>
+      </c>
+      <c r="H47">
+        <v>0.03134587841067067</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01687547942448467</v>
+        <v>0.01488810534597726</v>
       </c>
       <c r="C48">
-        <v>-0.01004164838464355</v>
+        <v>-0.013745627874571</v>
       </c>
       <c r="D48">
-        <v>-0.01920213659345452</v>
+        <v>-0.005604108742729791</v>
       </c>
       <c r="E48">
-        <v>-0.01237703037414694</v>
+        <v>0.001773094633261</v>
       </c>
       <c r="F48">
-        <v>0.03380188393163081</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.002502388844156242</v>
+      </c>
+      <c r="G48">
+        <v>0.01878172844562626</v>
+      </c>
+      <c r="H48">
+        <v>-0.01848247584712576</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08253710582515798</v>
+        <v>0.06326741914269822</v>
       </c>
       <c r="C50">
-        <v>-0.03435053814115283</v>
+        <v>-0.05874449399866592</v>
       </c>
       <c r="D50">
-        <v>-0.0324714480367208</v>
+        <v>-0.01700520227708755</v>
       </c>
       <c r="E50">
-        <v>-0.02453145515355218</v>
+        <v>0.01830985086701115</v>
       </c>
       <c r="F50">
-        <v>0.01698336600614928</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.0003382873361140821</v>
+      </c>
+      <c r="G50">
+        <v>0.008409283080751657</v>
+      </c>
+      <c r="H50">
+        <v>0.01687776346713352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02139174091152662</v>
+        <v>0.0133523315726041</v>
       </c>
       <c r="C51">
-        <v>-0.00591151253329284</v>
+        <v>-0.01020211314741879</v>
       </c>
       <c r="D51">
-        <v>0.001713621847109042</v>
+        <v>-0.01008578473603854</v>
       </c>
       <c r="E51">
-        <v>-0.01259652129720343</v>
+        <v>0.008596955236402313</v>
       </c>
       <c r="F51">
-        <v>0.0831527246645731</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.008778064464839313</v>
+      </c>
+      <c r="G51">
+        <v>0.03511333662162016</v>
+      </c>
+      <c r="H51">
+        <v>-0.04172729829819006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08458502400168037</v>
+        <v>0.0771029164985045</v>
       </c>
       <c r="C53">
-        <v>-0.0533961430570392</v>
+        <v>-0.09556166313608329</v>
       </c>
       <c r="D53">
-        <v>-0.03814532108273019</v>
+        <v>-0.03166067968513331</v>
       </c>
       <c r="E53">
-        <v>-0.03813325369331946</v>
+        <v>0.01001399464109455</v>
       </c>
       <c r="F53">
-        <v>-0.03478984613049406</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02817685831027752</v>
+      </c>
+      <c r="G53">
+        <v>-0.01841526451609363</v>
+      </c>
+      <c r="H53">
+        <v>0.02794335059227662</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02541448452401083</v>
+        <v>0.02320419501362072</v>
       </c>
       <c r="C54">
-        <v>-0.001512205132842885</v>
+        <v>-0.0003989633263746597</v>
       </c>
       <c r="D54">
-        <v>0.003824061317347637</v>
+        <v>0.007582718381603758</v>
       </c>
       <c r="E54">
-        <v>-0.02310628649163557</v>
+        <v>0.008108017595385163</v>
       </c>
       <c r="F54">
-        <v>0.02986393728390773</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.0121562835159331</v>
+      </c>
+      <c r="G54">
+        <v>0.03732595702622484</v>
+      </c>
+      <c r="H54">
+        <v>0.003762524076501838</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08334736399331787</v>
+        <v>0.05812631814712536</v>
       </c>
       <c r="C55">
-        <v>-0.04839001126740815</v>
+        <v>-0.08492139211743231</v>
       </c>
       <c r="D55">
-        <v>-0.04422140117280215</v>
+        <v>-0.02936859687141782</v>
       </c>
       <c r="E55">
-        <v>-0.02802086083793544</v>
+        <v>0.01111345916387853</v>
       </c>
       <c r="F55">
-        <v>-0.03536579554434569</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01100111797935323</v>
+      </c>
+      <c r="G55">
+        <v>-0.005869044308113964</v>
+      </c>
+      <c r="H55">
+        <v>0.0371800363547011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1201154006377891</v>
+        <v>0.1020232927244934</v>
       </c>
       <c r="C56">
-        <v>-0.081890304211031</v>
+        <v>-0.1238785522906373</v>
       </c>
       <c r="D56">
-        <v>-0.02399884203124425</v>
+        <v>-0.03462945858428164</v>
       </c>
       <c r="E56">
-        <v>-0.07357664587524254</v>
+        <v>0.009998303121565145</v>
       </c>
       <c r="F56">
-        <v>-0.06704377139325463</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.05427926047676702</v>
+      </c>
+      <c r="G56">
+        <v>-0.03805641104210349</v>
+      </c>
+      <c r="H56">
+        <v>0.06725186419020593</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03701090701055272</v>
+        <v>0.02586398617525096</v>
       </c>
       <c r="C57">
-        <v>-0.02988049701300275</v>
+        <v>-0.01883581562273668</v>
       </c>
       <c r="D57">
-        <v>-0.02007517696680703</v>
+        <v>-0.03281932254438073</v>
       </c>
       <c r="E57">
-        <v>0.02804421920135207</v>
+        <v>-0.007374918342558979</v>
       </c>
       <c r="F57">
-        <v>0.0535586339177394</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03115283404920517</v>
+      </c>
+      <c r="G57">
+        <v>0.05746045917021005</v>
+      </c>
+      <c r="H57">
+        <v>-0.05400018864179307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.140886142812354</v>
+        <v>0.09612741393620305</v>
       </c>
       <c r="C58">
-        <v>-0.2200903022071101</v>
+        <v>-0.1628011202003431</v>
       </c>
       <c r="D58">
-        <v>-0.2220079470222298</v>
+        <v>-0.07692750532381736</v>
       </c>
       <c r="E58">
-        <v>-0.003177409551976552</v>
+        <v>-0.2832911476110872</v>
       </c>
       <c r="F58">
-        <v>0.538629805220574</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.4453117690123088</v>
+      </c>
+      <c r="G58">
+        <v>0.7070755545107832</v>
+      </c>
+      <c r="H58">
+        <v>0.3061496870427157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05481429990747391</v>
+        <v>0.200039227071122</v>
       </c>
       <c r="C59">
-        <v>-0.03246915185600309</v>
+        <v>0.1520693318204247</v>
       </c>
       <c r="D59">
-        <v>0.1842327597646312</v>
+        <v>0.1054172627518056</v>
       </c>
       <c r="E59">
-        <v>0.0320515898148539</v>
+        <v>-0.007986943047143291</v>
       </c>
       <c r="F59">
-        <v>0.08480245951087083</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.005561797653065674</v>
+      </c>
+      <c r="G59">
+        <v>0.01491923360008723</v>
+      </c>
+      <c r="H59">
+        <v>-0.01714826958393283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1300245547525495</v>
+        <v>0.2179901528689809</v>
       </c>
       <c r="C60">
-        <v>-0.1218851064220766</v>
+        <v>-0.05670014465525763</v>
       </c>
       <c r="D60">
-        <v>-0.002869155400203857</v>
+        <v>-0.01295449577665318</v>
       </c>
       <c r="E60">
-        <v>0.01724458272898396</v>
+        <v>-0.05706344360751519</v>
       </c>
       <c r="F60">
-        <v>0.1665682051811982</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.07964047427795978</v>
+      </c>
+      <c r="G60">
+        <v>0.04558848637754331</v>
+      </c>
+      <c r="H60">
+        <v>-0.3880781541502362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02059965999237658</v>
+        <v>0.01401673631481142</v>
       </c>
       <c r="C61">
-        <v>-0.01139564395985092</v>
+        <v>-0.05349790147879736</v>
       </c>
       <c r="D61">
-        <v>-0.04420608441121471</v>
+        <v>-0.02723941097575913</v>
       </c>
       <c r="E61">
-        <v>-0.007850301518919418</v>
+        <v>0.003350844874309762</v>
       </c>
       <c r="F61">
-        <v>0.01763067500719108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.008400974014756897</v>
+      </c>
+      <c r="G61">
+        <v>0.02546904164865921</v>
+      </c>
+      <c r="H61">
+        <v>-0.05655096740579174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01250051487450865</v>
+        <v>0.008073525623195207</v>
       </c>
       <c r="C63">
-        <v>-0.002086658417259354</v>
+        <v>-0.01690078909093615</v>
       </c>
       <c r="D63">
-        <v>-0.02241455215836584</v>
+        <v>-0.01508401755141306</v>
       </c>
       <c r="E63">
-        <v>-0.0003392052165449685</v>
+        <v>0.009699331335630629</v>
       </c>
       <c r="F63">
-        <v>0.007368905642342617</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.000236925426862101</v>
+      </c>
+      <c r="G63">
+        <v>0.01485098641006365</v>
+      </c>
+      <c r="H63">
+        <v>-0.01263569871648511</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03547032026990971</v>
+        <v>0.03708226094034646</v>
       </c>
       <c r="C64">
-        <v>-0.00447409743905332</v>
+        <v>-0.03780925115182005</v>
       </c>
       <c r="D64">
-        <v>-0.0288106300411426</v>
+        <v>-0.01810898060314101</v>
       </c>
       <c r="E64">
-        <v>-0.02122033346907254</v>
+        <v>0.0154273362511192</v>
       </c>
       <c r="F64">
-        <v>0.01263090012168181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.006955684541657901</v>
+      </c>
+      <c r="G64">
+        <v>-0.008904175217712041</v>
+      </c>
+      <c r="H64">
+        <v>-0.04736130700263734</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03685356175252597</v>
+        <v>0.04290335266925318</v>
       </c>
       <c r="C65">
-        <v>-0.01730297281454835</v>
+        <v>-0.06578768796246394</v>
       </c>
       <c r="D65">
-        <v>-0.04083898278572683</v>
+        <v>-0.04352534233028767</v>
       </c>
       <c r="E65">
-        <v>-0.02677194104783506</v>
+        <v>0.006900142764501485</v>
       </c>
       <c r="F65">
-        <v>0.005875736956802387</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04300302665257522</v>
+      </c>
+      <c r="G65">
+        <v>0.01313687988867952</v>
+      </c>
+      <c r="H65">
+        <v>-0.07567544466234941</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0323293011767762</v>
+        <v>0.01686457946018594</v>
       </c>
       <c r="C66">
-        <v>-0.03296609698853866</v>
+        <v>-0.1005043308296046</v>
       </c>
       <c r="D66">
-        <v>-0.06409996568779468</v>
+        <v>-0.05417179542568942</v>
       </c>
       <c r="E66">
-        <v>-0.04629915838098408</v>
+        <v>-0.008315577036179581</v>
       </c>
       <c r="F66">
-        <v>0.03218870056485175</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.02794300707699281</v>
+      </c>
+      <c r="G66">
+        <v>0.03914643082319282</v>
+      </c>
+      <c r="H66">
+        <v>-0.08344170483304426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01822569407684563</v>
+        <v>0.04611632774331679</v>
       </c>
       <c r="C67">
-        <v>-0.01617970737831624</v>
+        <v>-0.02632109595167565</v>
       </c>
       <c r="D67">
-        <v>0.01019328239736898</v>
+        <v>0.0002602794682472244</v>
       </c>
       <c r="E67">
-        <v>0.0107169383071735</v>
+        <v>-0.001382104474288293</v>
       </c>
       <c r="F67">
-        <v>0.02670223898723257</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01155005879155503</v>
+      </c>
+      <c r="G67">
+        <v>0.01748904633389619</v>
+      </c>
+      <c r="H67">
+        <v>-0.03022109818745106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06994098853585004</v>
+        <v>0.1957877971744291</v>
       </c>
       <c r="C68">
-        <v>-0.02940713015790031</v>
+        <v>0.1893593625469677</v>
       </c>
       <c r="D68">
-        <v>0.2085023043633908</v>
+        <v>0.1011158350845735</v>
       </c>
       <c r="E68">
-        <v>0.04343106898857994</v>
+        <v>-0.006749723155743812</v>
       </c>
       <c r="F68">
-        <v>0.07828007228421829</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.053968934897653</v>
+      </c>
+      <c r="G68">
+        <v>0.01541039591881776</v>
+      </c>
+      <c r="H68">
+        <v>0.04503218688285108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05517557164539617</v>
+        <v>0.05717718165751743</v>
       </c>
       <c r="C69">
-        <v>-0.03875061129638172</v>
+        <v>-0.05768789361494144</v>
       </c>
       <c r="D69">
-        <v>-0.01573390730755959</v>
+        <v>-0.01050164036427104</v>
       </c>
       <c r="E69">
-        <v>-0.03776372390162894</v>
+        <v>0.005296971152870988</v>
       </c>
       <c r="F69">
-        <v>0.008814925220205921</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02621149646299037</v>
+      </c>
+      <c r="G69">
+        <v>0.00105801692643258</v>
+      </c>
+      <c r="H69">
+        <v>-0.00716092930049799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07668987575800194</v>
+        <v>0.1758146347700517</v>
       </c>
       <c r="C71">
-        <v>-0.03851005626674431</v>
+        <v>0.1488176205114159</v>
       </c>
       <c r="D71">
-        <v>0.212210805253457</v>
+        <v>0.08759232611501649</v>
       </c>
       <c r="E71">
-        <v>0.08155120419720265</v>
+        <v>-0.01063212227343248</v>
       </c>
       <c r="F71">
-        <v>0.08162204619836055</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.06711815041157898</v>
+      </c>
+      <c r="G71">
+        <v>0.01504998425058918</v>
+      </c>
+      <c r="H71">
+        <v>0.02649626300822835</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09798411150113613</v>
+        <v>0.06157797027532307</v>
       </c>
       <c r="C72">
-        <v>-0.085949553332206</v>
+        <v>-0.1039639560638229</v>
       </c>
       <c r="D72">
-        <v>-0.07672425788455468</v>
+        <v>-0.03135444367101996</v>
       </c>
       <c r="E72">
-        <v>-0.07933173476470466</v>
+        <v>-0.01665909884504447</v>
       </c>
       <c r="F72">
-        <v>0.0726503388873975</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.05270625004887093</v>
+      </c>
+      <c r="G72">
+        <v>0.04585073064860299</v>
+      </c>
+      <c r="H72">
+        <v>-0.1000283981470334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1661256798971646</v>
+        <v>0.2870458131830781</v>
       </c>
       <c r="C73">
-        <v>-0.1943652118449123</v>
+        <v>-0.1213733024699575</v>
       </c>
       <c r="D73">
-        <v>0.01625527182590645</v>
+        <v>-0.0449386771474266</v>
       </c>
       <c r="E73">
-        <v>0.06225778052941278</v>
+        <v>-0.09970737844449194</v>
       </c>
       <c r="F73">
-        <v>0.2015822096276741</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.08800429564030221</v>
+      </c>
+      <c r="G73">
+        <v>0.05051214930177697</v>
+      </c>
+      <c r="H73">
+        <v>-0.4843530920821953</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1112986832114082</v>
+        <v>0.09973523744398911</v>
       </c>
       <c r="C74">
-        <v>-0.07497395941181603</v>
+        <v>-0.1268750577326986</v>
       </c>
       <c r="D74">
-        <v>-0.02305174155299543</v>
+        <v>-0.03662549010396176</v>
       </c>
       <c r="E74">
-        <v>-0.04794391206531604</v>
+        <v>0.01166312963882997</v>
       </c>
       <c r="F74">
-        <v>-0.07862906411080414</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.03998414393335668</v>
+      </c>
+      <c r="G74">
+        <v>-0.0250013992130495</v>
+      </c>
+      <c r="H74">
+        <v>0.04080467718345115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1947538268821309</v>
+        <v>0.2078815966006179</v>
       </c>
       <c r="C75">
-        <v>-0.1485060761294378</v>
+        <v>-0.2171190782269037</v>
       </c>
       <c r="D75">
-        <v>-0.01532158054503463</v>
+        <v>-0.05140057066150475</v>
       </c>
       <c r="E75">
-        <v>-0.1605864569907575</v>
+        <v>0.007234190662241618</v>
       </c>
       <c r="F75">
-        <v>-0.1263158373416267</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1123998052178507</v>
+      </c>
+      <c r="G75">
+        <v>-0.0597057142164387</v>
+      </c>
+      <c r="H75">
+        <v>0.1487449557248589</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2453658565248521</v>
+        <v>0.1630573006609307</v>
       </c>
       <c r="C76">
-        <v>-0.1372758402673295</v>
+        <v>-0.1969840627055259</v>
       </c>
       <c r="D76">
-        <v>-0.03014101129136267</v>
+        <v>-0.04851354084658845</v>
       </c>
       <c r="E76">
-        <v>-0.1704302448192303</v>
+        <v>0.04592566462802372</v>
       </c>
       <c r="F76">
-        <v>-0.2031481017102335</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.09196054357631826</v>
+      </c>
+      <c r="G76">
+        <v>-0.05835454360234934</v>
+      </c>
+      <c r="H76">
+        <v>0.1278414416328392</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08360744611521771</v>
+        <v>0.04809253580278317</v>
       </c>
       <c r="C77">
-        <v>-0.0702250815850676</v>
+        <v>-0.07196306605137325</v>
       </c>
       <c r="D77">
-        <v>-0.0836451535519151</v>
+        <v>-0.04372670188403196</v>
       </c>
       <c r="E77">
-        <v>0.03191296413531196</v>
+        <v>-0.01596603937449232</v>
       </c>
       <c r="F77">
-        <v>0.1304029118751454</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.04686687753536761</v>
+      </c>
+      <c r="G77">
+        <v>0.05891764313945626</v>
+      </c>
+      <c r="H77">
+        <v>-0.01136078540145009</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05969322825929835</v>
+        <v>0.02670102427861952</v>
       </c>
       <c r="C78">
-        <v>-0.03356515680512452</v>
+        <v>-0.07067739276715108</v>
       </c>
       <c r="D78">
-        <v>-0.1113958914276291</v>
+        <v>-0.0363703936732454</v>
       </c>
       <c r="E78">
-        <v>-0.03551544441985192</v>
+        <v>0.005159253011809879</v>
       </c>
       <c r="F78">
-        <v>0.07871057742337761</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.002252166734133725</v>
+      </c>
+      <c r="G78">
+        <v>0.05940234498088556</v>
+      </c>
+      <c r="H78">
+        <v>-0.09354079246470419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.6133769298398206</v>
+        <v>0.1073717833389006</v>
       </c>
       <c r="C80">
-        <v>0.7677516859310094</v>
+        <v>-0.09128831247607683</v>
       </c>
       <c r="D80">
-        <v>-0.07579669751247899</v>
+        <v>-0.03980485352487051</v>
       </c>
       <c r="E80">
-        <v>0.04841352399621233</v>
+        <v>0.9156716316024364</v>
       </c>
       <c r="F80">
-        <v>0.04640926925167876</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.3010887847047759</v>
+      </c>
+      <c r="G80">
+        <v>0.1063532061114192</v>
+      </c>
+      <c r="H80">
+        <v>-0.02966710865474621</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1541375660019133</v>
+        <v>0.1356477278697469</v>
       </c>
       <c r="C81">
-        <v>-0.1012055149159064</v>
+        <v>-0.1345925837723629</v>
       </c>
       <c r="D81">
-        <v>-0.008773128065091649</v>
+        <v>-0.03169851970222737</v>
       </c>
       <c r="E81">
-        <v>-0.1184869262432338</v>
+        <v>0.01629808743011462</v>
       </c>
       <c r="F81">
-        <v>-0.1111845969469054</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.06398188857535143</v>
+      </c>
+      <c r="G81">
+        <v>-0.04045957507331379</v>
+      </c>
+      <c r="H81">
+        <v>0.08652677255093756</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02825430776919438</v>
+        <v>0.0236334684109811</v>
       </c>
       <c r="C83">
-        <v>-0.02566260811101631</v>
+        <v>-0.02035884670953736</v>
       </c>
       <c r="D83">
-        <v>-0.02630007921439587</v>
+        <v>-0.01256812055015607</v>
       </c>
       <c r="E83">
-        <v>0.01312579157072219</v>
+        <v>-0.00590466279084805</v>
       </c>
       <c r="F83">
-        <v>0.05575742123458039</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01930812036179966</v>
+      </c>
+      <c r="G83">
+        <v>0.03958599906349671</v>
+      </c>
+      <c r="H83">
+        <v>-0.04299382368230086</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2173458807125616</v>
+        <v>0.1943963681831589</v>
       </c>
       <c r="C85">
-        <v>-0.1521102434524157</v>
+        <v>-0.2091545109533385</v>
       </c>
       <c r="D85">
-        <v>-0.02647379279710507</v>
+        <v>-0.06352559339492254</v>
       </c>
       <c r="E85">
-        <v>-0.1452209968674212</v>
+        <v>0.006024972988050739</v>
       </c>
       <c r="F85">
-        <v>-0.1554335442678079</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1153643083905047</v>
+      </c>
+      <c r="G85">
+        <v>-0.09009915055667059</v>
+      </c>
+      <c r="H85">
+        <v>0.07935476869561833</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01087634722241481</v>
+        <v>0.01275788352403033</v>
       </c>
       <c r="C86">
-        <v>0.0004424547285195486</v>
+        <v>-0.02962715113474616</v>
       </c>
       <c r="D86">
-        <v>-0.07858462070748541</v>
+        <v>-0.02107283211754781</v>
       </c>
       <c r="E86">
-        <v>0.0003380734273393689</v>
+        <v>0.008298680901338652</v>
       </c>
       <c r="F86">
-        <v>0.04921980754178211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02980329480776075</v>
+      </c>
+      <c r="G86">
+        <v>0.0317626260741204</v>
+      </c>
+      <c r="H86">
+        <v>-0.07749438213658273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03202329941596625</v>
+        <v>0.00878840584605264</v>
       </c>
       <c r="C87">
-        <v>-0.02020166550889034</v>
+        <v>-0.0335235051385488</v>
       </c>
       <c r="D87">
-        <v>-0.03967991353465232</v>
+        <v>-0.02469256183097124</v>
       </c>
       <c r="E87">
-        <v>-0.005141890895971943</v>
+        <v>-0.0001379564748607175</v>
       </c>
       <c r="F87">
-        <v>0.1050764587339452</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.02773176614593335</v>
+      </c>
+      <c r="G87">
+        <v>0.07193234603109649</v>
+      </c>
+      <c r="H87">
+        <v>-0.07946700747340978</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.02189595947066455</v>
+        <v>0.04345517224875714</v>
       </c>
       <c r="C88">
-        <v>0.0007821947322448591</v>
+        <v>-0.01152727036465826</v>
       </c>
       <c r="D88">
-        <v>0.002478580931467204</v>
+        <v>-0.02345508993943828</v>
       </c>
       <c r="E88">
-        <v>-0.02073779358457993</v>
+        <v>0.0210069623205658</v>
       </c>
       <c r="F88">
-        <v>-0.01800707204321943</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01882550256992626</v>
+      </c>
+      <c r="G88">
+        <v>0.0001888901750980423</v>
+      </c>
+      <c r="H88">
+        <v>-0.007863401760070844</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09989688673946238</v>
+        <v>0.3054746133305953</v>
       </c>
       <c r="C89">
-        <v>-0.05316892917177238</v>
+        <v>0.2630948826833923</v>
       </c>
       <c r="D89">
-        <v>0.3398766610044466</v>
+        <v>0.1544744091093417</v>
       </c>
       <c r="E89">
-        <v>0.04633212967277182</v>
+        <v>-0.008071163806656699</v>
       </c>
       <c r="F89">
-        <v>0.1014823879389042</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.009512566906138362</v>
+      </c>
+      <c r="G89">
+        <v>-0.02009706886385609</v>
+      </c>
+      <c r="H89">
+        <v>0.0103241214132963</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08654851484219332</v>
+        <v>0.2552852763087376</v>
       </c>
       <c r="C90">
-        <v>-0.02113021044576286</v>
+        <v>0.2416468121710916</v>
       </c>
       <c r="D90">
-        <v>0.3617514057249197</v>
+        <v>0.1424043315602052</v>
       </c>
       <c r="E90">
-        <v>0.07314407963765604</v>
+        <v>-0.0007584042156247885</v>
       </c>
       <c r="F90">
-        <v>0.05279303859374134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04987914200507278</v>
+      </c>
+      <c r="G90">
+        <v>-0.01576784654232656</v>
+      </c>
+      <c r="H90">
+        <v>0.05859672279561867</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2468531275809776</v>
+        <v>0.2043388268282016</v>
       </c>
       <c r="C91">
-        <v>-0.192305173638728</v>
+        <v>-0.1997850030460875</v>
       </c>
       <c r="D91">
-        <v>-0.02713063298245816</v>
+        <v>-0.04539563020130744</v>
       </c>
       <c r="E91">
-        <v>-0.1227211577475636</v>
+        <v>-0.003090136795295802</v>
       </c>
       <c r="F91">
-        <v>-0.2403454266811671</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.09774878548352189</v>
+      </c>
+      <c r="G91">
+        <v>-0.08451405988105905</v>
+      </c>
+      <c r="H91">
+        <v>0.1638415187218105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1570093598302572</v>
+        <v>0.2747214788303077</v>
       </c>
       <c r="C92">
-        <v>-0.08056122772645459</v>
+        <v>0.1381907551183951</v>
       </c>
       <c r="D92">
-        <v>0.4308401956592432</v>
+        <v>0.1422721446015545</v>
       </c>
       <c r="E92">
-        <v>-0.03265201171620476</v>
+        <v>0.005696157166137526</v>
       </c>
       <c r="F92">
-        <v>-0.05870832232213696</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.02735158597072258</v>
+      </c>
+      <c r="G92">
+        <v>0.02151101961906549</v>
+      </c>
+      <c r="H92">
+        <v>0.1494794819782255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0889691746445465</v>
+        <v>0.2853473436607843</v>
       </c>
       <c r="C93">
-        <v>-0.0675525048843688</v>
+        <v>0.2356939023855796</v>
       </c>
       <c r="D93">
-        <v>0.4215871195332289</v>
+        <v>0.1499994904861826</v>
       </c>
       <c r="E93">
-        <v>0.110111449168645</v>
+        <v>-0.03340112648562213</v>
       </c>
       <c r="F93">
-        <v>0.06004882319846831</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.04750816980730022</v>
+      </c>
+      <c r="G93">
+        <v>-0.02168635742580772</v>
+      </c>
+      <c r="H93">
+        <v>-0.000949045884629649</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2459273320551476</v>
+        <v>0.2526785909672539</v>
       </c>
       <c r="C94">
-        <v>-0.2036868859999308</v>
+        <v>-0.2223426040948052</v>
       </c>
       <c r="D94">
-        <v>-0.03219746696475155</v>
+        <v>-0.06465229235629884</v>
       </c>
       <c r="E94">
-        <v>-0.2367753936993452</v>
+        <v>-0.01152063816657725</v>
       </c>
       <c r="F94">
-        <v>-0.1920237705411885</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2349796816819178</v>
+      </c>
+      <c r="G94">
+        <v>-0.1318178676021284</v>
+      </c>
+      <c r="H94">
+        <v>0.3973425499095667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.008497561502023552</v>
+        <v>0.0334428778328671</v>
       </c>
       <c r="C95">
-        <v>-0.08507606983243196</v>
+        <v>-0.09424618634912239</v>
       </c>
       <c r="D95">
-        <v>-0.03892310660887097</v>
+        <v>-0.03272248428624389</v>
       </c>
       <c r="E95">
-        <v>-0.02182363462960352</v>
+        <v>-0.08242157265061781</v>
       </c>
       <c r="F95">
-        <v>0.01558674045633878</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.02277973605432147</v>
+      </c>
+      <c r="G95">
+        <v>0.03667122777665463</v>
+      </c>
+      <c r="H95">
+        <v>-0.03713525990028972</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1316721244850549</v>
+        <v>0.1874480625314139</v>
       </c>
       <c r="C98">
-        <v>-0.1238307683336183</v>
+        <v>-0.06617970512321959</v>
       </c>
       <c r="D98">
-        <v>0.01649522937841105</v>
+        <v>0.007986743170732611</v>
       </c>
       <c r="E98">
-        <v>0.06119011141067811</v>
+        <v>-0.06601815619691732</v>
       </c>
       <c r="F98">
-        <v>0.1698930413888421</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.007601241873338436</v>
+      </c>
+      <c r="G98">
+        <v>0.06899186130430826</v>
+      </c>
+      <c r="H98">
+        <v>-0.3255686754210167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01131376682514137</v>
+        <v>0.009048169085040235</v>
       </c>
       <c r="C101">
-        <v>0.001026113421674436</v>
+        <v>-0.01556396751155936</v>
       </c>
       <c r="D101">
-        <v>-0.0603876740534938</v>
+        <v>-0.01339847767556195</v>
       </c>
       <c r="E101">
-        <v>-0.02948762768294964</v>
+        <v>-0.0003563463440169971</v>
       </c>
       <c r="F101">
-        <v>0.1690247115228451</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02855774816031393</v>
+      </c>
+      <c r="G101">
+        <v>0.09135008282889383</v>
+      </c>
+      <c r="H101">
+        <v>0.01182949425534053</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09770652894656624</v>
+        <v>0.09765504001065066</v>
       </c>
       <c r="C102">
-        <v>-0.06368688593662267</v>
+        <v>-0.0957743446839755</v>
       </c>
       <c r="D102">
-        <v>-0.01730923114787609</v>
+        <v>-0.03539067036112931</v>
       </c>
       <c r="E102">
-        <v>-0.07536609712908438</v>
+        <v>0.007306575309156958</v>
       </c>
       <c r="F102">
-        <v>-0.09367401417422125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06201251759396407</v>
+      </c>
+      <c r="G102">
+        <v>-0.03943306042162209</v>
+      </c>
+      <c r="H102">
+        <v>0.06149217899217401</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04321977434377993</v>
+        <v>0.0120495976476509</v>
       </c>
       <c r="C103">
-        <v>-0.01451892532872137</v>
+        <v>-0.01706820853196625</v>
       </c>
       <c r="D103">
-        <v>-0.02216651323545985</v>
+        <v>-0.006384523271627319</v>
       </c>
       <c r="E103">
-        <v>-0.04151696246781596</v>
+        <v>0.01308660680367517</v>
       </c>
       <c r="F103">
-        <v>-0.01076273154702481</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.001086224663278242</v>
+      </c>
+      <c r="G103">
+        <v>0.006519214880036684</v>
+      </c>
+      <c r="H103">
+        <v>0.01627560057281324</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1140651941060055</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.4465523239464575</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.8714086005510909</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.0253896892748763</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1154329345411891</v>
+      </c>
+      <c r="G104">
+        <v>0.04567223645605326</v>
+      </c>
+      <c r="H104">
+        <v>0.05446820892585177</v>
       </c>
     </row>
   </sheetData>
